--- a/Server/docs/Models.xlsx
+++ b/Server/docs/Models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Harmonize/Server/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9975EA48-B641-224F-AD02-BF0CD7236E1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A48B1F7-61E4-994B-B6A5-23877F46EBF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14140" yWindow="-21040" windowWidth="28040" windowHeight="17040" xr2:uid="{C80434CB-5416-A649-8B45-1906BD549C71}"/>
+    <workbookView xWindow="0" yWindow="1320" windowWidth="28800" windowHeight="17540" xr2:uid="{C80434CB-5416-A649-8B45-1906BD549C71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
   <si>
     <t>SongModel</t>
   </si>
@@ -87,31 +87,25 @@
     <t>str</t>
   </si>
   <si>
-    <t>Song1</t>
-  </si>
-  <si>
-    <t>Song2</t>
-  </si>
-  <si>
-    <t>Song3</t>
-  </si>
-  <si>
-    <t>Votes1</t>
-  </si>
-  <si>
-    <t>Votes2</t>
-  </si>
-  <si>
-    <t>Votes3</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
-    <t>datetime</t>
-  </si>
-  <si>
     <t>str(url)</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>UserVotes</t>
+  </si>
+  <si>
+    <t>UserID</t>
+  </si>
+  <si>
+    <t>Datetime</t>
   </si>
 </sst>
 </file>
@@ -143,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -151,13 +145,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,15 +476,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE9FE4D-55D9-EA42-90AA-A163923CFD7B}">
-  <dimension ref="E6:N14"/>
+  <dimension ref="E6:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,11 +501,11 @@
         <v>15</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="5:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E7" t="s">
         <v>1</v>
       </c>
@@ -512,28 +516,28 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
         <v>7</v>
       </c>
       <c r="J7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
         <v>7</v>
       </c>
       <c r="L7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" t="s">
         <v>7</v>
       </c>
-      <c r="N7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="5:14" x14ac:dyDescent="0.2">
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>2</v>
       </c>
@@ -556,16 +560,16 @@
         <v>13</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="5:14" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="O8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>3</v>
       </c>
@@ -578,31 +582,25 @@
       <c r="H9" t="s">
         <v>19</v>
       </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>26</v>
-      </c>
       <c r="K9" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
-      </c>
-      <c r="M9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="O9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
@@ -614,64 +612,69 @@
         <v>16</v>
       </c>
       <c r="L10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M10" t="s">
-        <v>22</v>
-      </c>
-      <c r="N10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="5:14" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="O10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" t="s">
+        <v>22</v>
+      </c>
+      <c r="P11" t="s">
         <v>23</v>
       </c>
-      <c r="N11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="5:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="5:16" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>7</v>
       </c>
       <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="5:16" x14ac:dyDescent="0.2">
+      <c r="G16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
         <v>26</v>
       </c>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="M13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="5:14" x14ac:dyDescent="0.2">
-      <c r="M14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" t="s">
-        <v>27</v>
-      </c>
+    </row>
+    <row r="22" spans="7:13" x14ac:dyDescent="0.2">
+      <c r="K22" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
